--- a/data/output/FV2410_FV2404/QUOTES/15004.xlsx
+++ b/data/output/FV2410_FV2404/QUOTES/15004.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056" uniqueCount="261">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3077" uniqueCount="261">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -910,6 +910,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U139" totalsRowShown="0">
+  <autoFilter ref="A1:U139"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1199,7 +1229,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7899,5 +7932,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/QUOTES/15004.xlsx
+++ b/data/output/FV2410_FV2404/QUOTES/15004.xlsx
@@ -1755,7 +1755,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2117,7 +2117,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2263,7 +2263,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -3011,7 +3011,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="2" t="s">
@@ -3319,7 +3319,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -3881,7 +3881,7 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -4475,7 +4475,7 @@
         <v>247</v>
       </c>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -4891,7 +4891,7 @@
         <v>250</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5101,7 +5101,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -5295,7 +5295,7 @@
         <v>251</v>
       </c>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5711,7 +5711,7 @@
         <v>250</v>
       </c>
       <c r="L80" s="4"/>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N80" s="2" t="s">
@@ -5921,7 +5921,7 @@
       </c>
       <c r="K84" s="2"/>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -6115,7 +6115,7 @@
         <v>253</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6531,7 +6531,7 @@
         <v>250</v>
       </c>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -6743,7 +6743,7 @@
         <v>255</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7159,7 +7159,7 @@
         <v>250</v>
       </c>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -7371,7 +7371,7 @@
         <v>257</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7787,7 +7787,7 @@
         <v>250</v>
       </c>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -7997,7 +7997,7 @@
       </c>
       <c r="K124" s="2"/>
       <c r="L124" s="4"/>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N124" s="2" t="s">
@@ -8249,7 +8249,7 @@
         <v>259</v>
       </c>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N135" s="2"/>
@@ -8653,7 +8653,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N137" s="2"/>
